--- a/mail_list.xlsx
+++ b/mail_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8729538-3F6C-43F0-B3A5-678EDB218690}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206869A6-CDBC-4445-9786-E4A3332EA0C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="34">
   <si>
     <t>NAZWA SZKOŁY</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tAGnKpE4NCI</t>
+  </si>
+  <si>
+    <t>MIASTO</t>
+  </si>
+  <si>
+    <t>Szczecin</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>Gdynia</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Legnica</t>
   </si>
 </sst>
 </file>
@@ -507,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,9 +537,10 @@
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,10 +566,13 @@
         <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -575,9 +597,12 @@
       <c r="H2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -602,8 +627,11 @@
       <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -628,8 +656,11 @@
       <c r="H4" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -654,8 +685,11 @@
       <c r="H5" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -679,6 +713,9 @@
       </c>
       <c r="H6" s="12" t="s">
         <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
